--- a/week8.xlsx
+++ b/week8.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25203"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="2020" yWindow="3700" windowWidth="25600" windowHeight="14520" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="14540" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -937,13 +937,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>14</xdr:row>
+      <xdr:row>8</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
       <xdr:colOff>12700</xdr:colOff>
-      <xdr:row>14</xdr:row>
+      <xdr:row>8</xdr:row>
       <xdr:rowOff>12700</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1313,10 +1313,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr filterMode="1" enableFormatConditionsCalculation="0"/>
   <dimension ref="A1:I140"/>
   <sheetViews>
     <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+      <selection activeCell="K23" sqref="K23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -1359,33 +1360,33 @@
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>36</v>
+        <v>14</v>
       </c>
       <c r="C2" s="1">
-        <v>17.600000000000001</v>
+        <v>23.8</v>
       </c>
       <c r="D2" s="1">
-        <v>7</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>15</v>
       </c>
       <c r="F2" s="3">
-        <v>8200</v>
+        <v>8900</v>
       </c>
       <c r="G2" s="1">
-        <v>5.55</v>
+        <v>2.73</v>
       </c>
       <c r="H2">
-        <f t="shared" ref="H2:H33" si="0">C2+G2</f>
-        <v>23.150000000000002</v>
+        <f>C2+G2</f>
+        <v>26.53</v>
       </c>
       <c r="I2" s="4">
-        <f t="shared" ref="I2:I33" si="1">F2/H2</f>
-        <v>354.2116630669546</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9">
+        <f>F2/H2</f>
+        <v>335.46928006030907</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" hidden="1">
       <c r="A3" s="1" t="s">
         <v>16</v>
       </c>
@@ -1408,11 +1409,11 @@
         <v>5.41</v>
       </c>
       <c r="H3">
-        <f t="shared" si="0"/>
+        <f>C3+G3</f>
         <v>13.01</v>
       </c>
       <c r="I3" s="4">
-        <f t="shared" si="1"/>
+        <f>F3/H3</f>
         <v>422.75172943889316</v>
       </c>
     </row>
@@ -1421,33 +1422,33 @@
         <v>0</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>67</v>
+        <v>3</v>
       </c>
       <c r="C4" s="1">
-        <v>15.8</v>
+        <v>25.7</v>
       </c>
       <c r="D4" s="1">
-        <v>6</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>20</v>
+        <v>7</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>4</v>
       </c>
       <c r="F4" s="3">
-        <v>7200</v>
+        <v>9900</v>
       </c>
       <c r="G4" s="1">
-        <v>4.9000000000000004</v>
+        <v>-1.31</v>
       </c>
       <c r="H4">
-        <f t="shared" si="0"/>
-        <v>20.700000000000003</v>
+        <f>C4+G4</f>
+        <v>24.39</v>
       </c>
       <c r="I4" s="4">
-        <f t="shared" si="1"/>
-        <v>347.82608695652169</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" ht="28">
+        <f>F4/H4</f>
+        <v>405.90405904059037</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" ht="28" hidden="1">
       <c r="A5" s="1" t="s">
         <v>16</v>
       </c>
@@ -1470,15 +1471,15 @@
         <v>4.51</v>
       </c>
       <c r="H5">
-        <f t="shared" si="0"/>
+        <f>C5+G5</f>
         <v>10.61</v>
       </c>
       <c r="I5" s="4">
-        <f t="shared" si="1"/>
+        <f>F5/H5</f>
         <v>574.92931196983977</v>
       </c>
     </row>
-    <row r="6" spans="1:9">
+    <row r="6" spans="1:9" hidden="1">
       <c r="A6" s="1" t="s">
         <v>16</v>
       </c>
@@ -1501,15 +1502,15 @@
         <v>4.51</v>
       </c>
       <c r="H6">
-        <f t="shared" si="0"/>
+        <f>C6+G6</f>
         <v>10.309999999999999</v>
       </c>
       <c r="I6" s="4">
-        <f t="shared" si="1"/>
+        <f>F6/H6</f>
         <v>455.86808923375372</v>
       </c>
     </row>
-    <row r="7" spans="1:9" ht="28">
+    <row r="7" spans="1:9" ht="28" hidden="1">
       <c r="A7" s="1" t="s">
         <v>5</v>
       </c>
@@ -1532,15 +1533,15 @@
         <v>3.9</v>
       </c>
       <c r="H7" s="5">
-        <f t="shared" si="0"/>
+        <f>C7+G7</f>
         <v>13.4</v>
       </c>
       <c r="I7" s="5">
-        <f t="shared" si="1"/>
+        <f>F7/H7</f>
         <v>455.2238805970149</v>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="28">
+    <row r="8" spans="1:9" ht="28" hidden="1">
       <c r="A8" s="1" t="s">
         <v>16</v>
       </c>
@@ -1563,11 +1564,11 @@
         <v>3.77</v>
       </c>
       <c r="H8">
-        <f t="shared" si="0"/>
+        <f>C8+G8</f>
         <v>11.47</v>
       </c>
       <c r="I8" s="4">
-        <f t="shared" si="1"/>
+        <f>F8/H8</f>
         <v>540.54054054054052</v>
       </c>
     </row>
@@ -1576,33 +1577,33 @@
         <v>0</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>146</v>
+        <v>1</v>
       </c>
       <c r="C9" s="1">
-        <v>11.2</v>
+        <v>20.7</v>
       </c>
       <c r="D9" s="1">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>118</v>
+        <v>2</v>
       </c>
       <c r="F9" s="3">
-        <v>5400</v>
+        <v>10000</v>
       </c>
       <c r="G9" s="1">
-        <v>3.76</v>
+        <v>3.12</v>
       </c>
       <c r="H9">
-        <f t="shared" si="0"/>
-        <v>14.959999999999999</v>
+        <f>C9+G9</f>
+        <v>23.82</v>
       </c>
       <c r="I9" s="4">
-        <f t="shared" si="1"/>
-        <v>360.96256684491982</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9">
+        <f>F9/H9</f>
+        <v>419.81528127623847</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" hidden="1">
       <c r="A10" s="1" t="s">
         <v>16</v>
       </c>
@@ -1625,15 +1626,15 @@
         <v>3.69</v>
       </c>
       <c r="H10">
-        <f t="shared" si="0"/>
+        <f>C10+G10</f>
         <v>13.19</v>
       </c>
       <c r="I10" s="4">
-        <f t="shared" si="1"/>
+        <f>F10/H10</f>
         <v>492.79757391963608</v>
       </c>
     </row>
-    <row r="11" spans="1:9">
+    <row r="11" spans="1:9" hidden="1">
       <c r="A11" s="1" t="s">
         <v>47</v>
       </c>
@@ -1656,15 +1657,15 @@
         <v>3.23</v>
       </c>
       <c r="H11">
-        <f t="shared" si="0"/>
+        <f>C11+G11</f>
         <v>10.53</v>
       </c>
       <c r="I11" s="4">
-        <f t="shared" si="1"/>
+        <f>F11/H11</f>
         <v>493.82716049382719</v>
       </c>
     </row>
-    <row r="12" spans="1:9">
+    <row r="12" spans="1:9" hidden="1">
       <c r="A12" s="1" t="s">
         <v>47</v>
       </c>
@@ -1687,15 +1688,15 @@
         <v>3.23</v>
       </c>
       <c r="H12">
-        <f t="shared" si="0"/>
+        <f>C12+G12</f>
         <v>11.03</v>
       </c>
       <c r="I12" s="4">
-        <f t="shared" si="1"/>
+        <f>F12/H12</f>
         <v>444.24297370806892</v>
       </c>
     </row>
-    <row r="13" spans="1:9">
+    <row r="13" spans="1:9" hidden="1">
       <c r="A13" s="1" t="s">
         <v>16</v>
       </c>
@@ -1718,15 +1719,15 @@
         <v>3.18</v>
       </c>
       <c r="H13">
-        <f t="shared" si="0"/>
+        <f>C13+G13</f>
         <v>18.28</v>
       </c>
       <c r="I13" s="4">
-        <f t="shared" si="1"/>
+        <f>F13/H13</f>
         <v>481.40043763676147</v>
       </c>
     </row>
-    <row r="14" spans="1:9">
+    <row r="14" spans="1:9" hidden="1">
       <c r="A14" s="1" t="s">
         <v>5</v>
       </c>
@@ -1749,11 +1750,11 @@
         <v>3.15</v>
       </c>
       <c r="H14" s="5">
-        <f t="shared" si="0"/>
+        <f>C14+G14</f>
         <v>23.45</v>
       </c>
       <c r="I14" s="5">
-        <f t="shared" si="1"/>
+        <f>F14/H14</f>
         <v>405.11727078891261</v>
       </c>
     </row>
@@ -1762,30 +1763,30 @@
         <v>0</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>1</v>
+        <v>36</v>
       </c>
       <c r="C15" s="1">
-        <v>20.7</v>
+        <v>17.600000000000001</v>
       </c>
       <c r="D15" s="1">
         <v>7</v>
       </c>
-      <c r="E15" s="2" t="s">
-        <v>2</v>
+      <c r="E15" s="1" t="s">
+        <v>7</v>
       </c>
       <c r="F15" s="3">
-        <v>10000</v>
+        <v>8200</v>
       </c>
       <c r="G15" s="1">
-        <v>3.12</v>
+        <v>5.55</v>
       </c>
       <c r="H15">
-        <f t="shared" si="0"/>
-        <v>23.82</v>
+        <f>C15+G15</f>
+        <v>23.150000000000002</v>
       </c>
       <c r="I15" s="4">
-        <f t="shared" si="1"/>
-        <v>419.81528127623847</v>
+        <f>F15/H15</f>
+        <v>354.2116630669546</v>
       </c>
     </row>
     <row r="16" spans="1:9">
@@ -1793,33 +1794,33 @@
         <v>0</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>68</v>
+        <v>58</v>
       </c>
       <c r="C16" s="1">
-        <v>16.2</v>
+        <v>18.600000000000001</v>
       </c>
       <c r="D16" s="1">
         <v>3</v>
       </c>
-      <c r="E16" s="2" t="s">
-        <v>63</v>
+      <c r="E16" s="1" t="s">
+        <v>59</v>
       </c>
       <c r="F16" s="3">
-        <v>7200</v>
+        <v>7400</v>
       </c>
       <c r="G16" s="1">
-        <v>2.99</v>
+        <v>2.5</v>
       </c>
       <c r="H16">
-        <f t="shared" si="0"/>
-        <v>19.189999999999998</v>
+        <f>C16+G16</f>
+        <v>21.1</v>
       </c>
       <c r="I16" s="4">
-        <f t="shared" si="1"/>
-        <v>375.19541427826999</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" ht="28">
+        <f>F16/H16</f>
+        <v>350.71090047393363</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" ht="28" hidden="1">
       <c r="A17" s="1" t="s">
         <v>16</v>
       </c>
@@ -1842,15 +1843,15 @@
         <v>2.94</v>
       </c>
       <c r="H17">
-        <f t="shared" si="0"/>
+        <f>C17+G17</f>
         <v>16.64</v>
       </c>
       <c r="I17" s="4">
-        <f t="shared" si="1"/>
+        <f>F17/H17</f>
         <v>480.76923076923077</v>
       </c>
     </row>
-    <row r="18" spans="1:9" ht="28">
+    <row r="18" spans="1:9" ht="28" hidden="1">
       <c r="A18" s="1" t="s">
         <v>47</v>
       </c>
@@ -1873,15 +1874,15 @@
         <v>2.93</v>
       </c>
       <c r="H18">
-        <f t="shared" si="0"/>
+        <f>C18+G18</f>
         <v>8.43</v>
       </c>
       <c r="I18" s="4">
-        <f t="shared" si="1"/>
+        <f>F18/H18</f>
         <v>604.982206405694</v>
       </c>
     </row>
-    <row r="19" spans="1:9">
+    <row r="19" spans="1:9" hidden="1">
       <c r="A19" s="1" t="s">
         <v>47</v>
       </c>
@@ -1904,15 +1905,15 @@
         <v>2.93</v>
       </c>
       <c r="H19">
-        <f t="shared" si="0"/>
+        <f>C19+G19</f>
         <v>4.83</v>
       </c>
       <c r="I19" s="4">
-        <f t="shared" si="1"/>
+        <f>F19/H19</f>
         <v>993.78881987577643</v>
       </c>
     </row>
-    <row r="20" spans="1:9">
+    <row r="20" spans="1:9" hidden="1">
       <c r="A20" s="1" t="s">
         <v>47</v>
       </c>
@@ -1935,15 +1936,15 @@
         <v>2.93</v>
       </c>
       <c r="H20">
-        <f t="shared" si="0"/>
+        <f>C20+G20</f>
         <v>5.03</v>
       </c>
       <c r="I20" s="4">
-        <f t="shared" si="1"/>
+        <f>F20/H20</f>
         <v>894.63220675944331</v>
       </c>
     </row>
-    <row r="21" spans="1:9">
+    <row r="21" spans="1:9" hidden="1">
       <c r="A21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1966,15 +1967,15 @@
         <v>2.88</v>
       </c>
       <c r="H21">
-        <f t="shared" si="0"/>
+        <f>C21+G21</f>
         <v>21.58</v>
       </c>
       <c r="I21" s="4">
-        <f t="shared" si="1"/>
+        <f>F21/H21</f>
         <v>407.78498609823913</v>
       </c>
     </row>
-    <row r="22" spans="1:9">
+    <row r="22" spans="1:9" hidden="1">
       <c r="A22" s="1" t="s">
         <v>16</v>
       </c>
@@ -1997,11 +1998,11 @@
         <v>2.88</v>
       </c>
       <c r="H22">
-        <f t="shared" si="0"/>
+        <f>C22+G22</f>
         <v>19.079999999999998</v>
       </c>
       <c r="I22" s="4">
-        <f t="shared" si="1"/>
+        <f>F22/H22</f>
         <v>440.25157232704407</v>
       </c>
     </row>
@@ -2010,33 +2011,33 @@
         <v>0</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>14</v>
+        <v>67</v>
       </c>
       <c r="C23" s="1">
-        <v>23.8</v>
+        <v>15.8</v>
       </c>
       <c r="D23" s="1">
         <v>6</v>
       </c>
-      <c r="E23" s="2" t="s">
-        <v>15</v>
+      <c r="E23" s="1" t="s">
+        <v>20</v>
       </c>
       <c r="F23" s="3">
-        <v>8900</v>
+        <v>7200</v>
       </c>
       <c r="G23" s="1">
-        <v>2.73</v>
+        <v>4.9000000000000004</v>
       </c>
       <c r="H23">
-        <f t="shared" si="0"/>
-        <v>26.53</v>
+        <f>C23+G23</f>
+        <v>20.700000000000003</v>
       </c>
       <c r="I23" s="4">
-        <f t="shared" si="1"/>
-        <v>335.46928006030907</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9">
+        <f>F23/H23</f>
+        <v>347.82608695652169</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" hidden="1">
       <c r="A24" s="1" t="s">
         <v>5</v>
       </c>
@@ -2059,15 +2060,15 @@
         <v>2.68</v>
       </c>
       <c r="H24" s="5">
-        <f t="shared" si="0"/>
+        <f>C24+G24</f>
         <v>12.78</v>
       </c>
       <c r="I24" s="5">
-        <f t="shared" si="1"/>
+        <f>F24/H24</f>
         <v>547.73082942097028</v>
       </c>
     </row>
-    <row r="25" spans="1:9" ht="28">
+    <row r="25" spans="1:9" ht="28" hidden="1">
       <c r="A25" s="1" t="s">
         <v>5</v>
       </c>
@@ -2090,15 +2091,15 @@
         <v>2.65</v>
       </c>
       <c r="H25" s="5">
-        <f t="shared" si="0"/>
+        <f>C25+G25</f>
         <v>8.15</v>
       </c>
       <c r="I25" s="5">
-        <f t="shared" si="1"/>
+        <f>F25/H25</f>
         <v>650.30674846625766</v>
       </c>
     </row>
-    <row r="26" spans="1:9">
+    <row r="26" spans="1:9" hidden="1">
       <c r="A26" s="1" t="s">
         <v>47</v>
       </c>
@@ -2121,15 +2122,15 @@
         <v>2.5099999999999998</v>
       </c>
       <c r="H26">
-        <f t="shared" si="0"/>
+        <f>C26+G26</f>
         <v>8.91</v>
       </c>
       <c r="I26" s="4">
-        <f t="shared" si="1"/>
+        <f>F26/H26</f>
         <v>549.94388327721663</v>
       </c>
     </row>
-    <row r="27" spans="1:9" ht="28">
+    <row r="27" spans="1:9" ht="28" hidden="1">
       <c r="A27" s="1" t="s">
         <v>47</v>
       </c>
@@ -2152,11 +2153,11 @@
         <v>2.5099999999999998</v>
       </c>
       <c r="H27">
-        <f t="shared" si="0"/>
+        <f>C27+G27</f>
         <v>3.4099999999999997</v>
       </c>
       <c r="I27" s="4">
-        <f t="shared" si="1"/>
+        <f>F27/H27</f>
         <v>1407.6246334310852</v>
       </c>
     </row>
@@ -2165,33 +2166,33 @@
         <v>0</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>58</v>
+        <v>51</v>
       </c>
       <c r="C28" s="1">
-        <v>18.600000000000001</v>
+        <v>18.2</v>
       </c>
       <c r="D28" s="1">
-        <v>3</v>
-      </c>
-      <c r="E28" s="1" t="s">
-        <v>59</v>
+        <v>7</v>
+      </c>
+      <c r="E28" s="2" t="s">
+        <v>50</v>
       </c>
       <c r="F28" s="3">
-        <v>7400</v>
+        <v>7500</v>
       </c>
       <c r="G28" s="1">
-        <v>2.5</v>
+        <v>1.24</v>
       </c>
       <c r="H28">
-        <f t="shared" si="0"/>
-        <v>21.1</v>
+        <f>C28+G28</f>
+        <v>19.439999999999998</v>
       </c>
       <c r="I28" s="4">
-        <f t="shared" si="1"/>
-        <v>350.71090047393363</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9">
+        <f>F28/H28</f>
+        <v>385.80246913580254</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" hidden="1">
       <c r="A29" s="1" t="s">
         <v>5</v>
       </c>
@@ -2214,15 +2215,15 @@
         <v>2.38</v>
       </c>
       <c r="H29" s="5">
-        <f t="shared" si="0"/>
+        <f>C29+G29</f>
         <v>20.079999999999998</v>
       </c>
       <c r="I29" s="5">
-        <f t="shared" si="1"/>
+        <f>F29/H29</f>
         <v>418.32669322709165</v>
       </c>
     </row>
-    <row r="30" spans="1:9" ht="28">
+    <row r="30" spans="1:9" ht="28" hidden="1">
       <c r="A30" s="1" t="s">
         <v>16</v>
       </c>
@@ -2245,15 +2246,15 @@
         <v>2.35</v>
       </c>
       <c r="H30">
-        <f t="shared" si="0"/>
+        <f>C30+G30</f>
         <v>12.549999999999999</v>
       </c>
       <c r="I30" s="4">
-        <f t="shared" si="1"/>
+        <f>F30/H30</f>
         <v>557.76892430278895</v>
       </c>
     </row>
-    <row r="31" spans="1:9" ht="28">
+    <row r="31" spans="1:9" ht="28" hidden="1">
       <c r="A31" s="1" t="s">
         <v>5</v>
       </c>
@@ -2276,15 +2277,15 @@
         <v>2.34</v>
       </c>
       <c r="H31" s="5">
-        <f t="shared" si="0"/>
+        <f>C31+G31</f>
         <v>19.14</v>
       </c>
       <c r="I31" s="5">
-        <f t="shared" si="1"/>
+        <f>F31/H31</f>
         <v>444.09613375130613</v>
       </c>
     </row>
-    <row r="32" spans="1:9" ht="28">
+    <row r="32" spans="1:9" ht="28" hidden="1">
       <c r="A32" s="1" t="s">
         <v>47</v>
       </c>
@@ -2307,15 +2308,15 @@
         <v>2.0499999999999998</v>
       </c>
       <c r="H32">
-        <f t="shared" si="0"/>
+        <f>C32+G32</f>
         <v>13.55</v>
       </c>
       <c r="I32" s="4">
-        <f t="shared" si="1"/>
+        <f>F32/H32</f>
         <v>531.36531365313647</v>
       </c>
     </row>
-    <row r="33" spans="1:9">
+    <row r="33" spans="1:9" hidden="1">
       <c r="A33" s="1" t="s">
         <v>47</v>
       </c>
@@ -2338,15 +2339,15 @@
         <v>2.0499999999999998</v>
       </c>
       <c r="H33">
-        <f t="shared" si="0"/>
+        <f>C33+G33</f>
         <v>6.25</v>
       </c>
       <c r="I33" s="4">
-        <f t="shared" si="1"/>
+        <f>F33/H33</f>
         <v>848</v>
       </c>
     </row>
-    <row r="34" spans="1:9" ht="28">
+    <row r="34" spans="1:9" ht="28" hidden="1">
       <c r="A34" s="1" t="s">
         <v>16</v>
       </c>
@@ -2369,15 +2370,15 @@
         <v>2.02</v>
       </c>
       <c r="H34">
-        <f t="shared" ref="H34:H65" si="2">C34+G34</f>
+        <f>C34+G34</f>
         <v>15.82</v>
       </c>
       <c r="I34" s="4">
-        <f t="shared" ref="I34:I65" si="3">F34/H34</f>
+        <f>F34/H34</f>
         <v>442.47787610619469</v>
       </c>
     </row>
-    <row r="35" spans="1:9">
+    <row r="35" spans="1:9" hidden="1">
       <c r="A35" s="1" t="s">
         <v>16</v>
       </c>
@@ -2400,15 +2401,15 @@
         <v>2.02</v>
       </c>
       <c r="H35">
-        <f t="shared" si="2"/>
+        <f>C35+G35</f>
         <v>5.92</v>
       </c>
       <c r="I35" s="4">
-        <f t="shared" si="3"/>
+        <f>F35/H35</f>
         <v>962.83783783783781</v>
       </c>
     </row>
-    <row r="36" spans="1:9">
+    <row r="36" spans="1:9" hidden="1">
       <c r="A36" s="1" t="s">
         <v>16</v>
       </c>
@@ -2431,15 +2432,15 @@
         <v>2.0099999999999998</v>
       </c>
       <c r="H36">
-        <f t="shared" si="2"/>
+        <f>C36+G36</f>
         <v>10.11</v>
       </c>
       <c r="I36" s="4">
-        <f t="shared" si="3"/>
+        <f>F36/H36</f>
         <v>672.60138476755697</v>
       </c>
     </row>
-    <row r="37" spans="1:9" ht="28">
+    <row r="37" spans="1:9" ht="28" hidden="1">
       <c r="A37" s="1" t="s">
         <v>16</v>
       </c>
@@ -2462,15 +2463,15 @@
         <v>1.8</v>
       </c>
       <c r="H37">
-        <f t="shared" si="2"/>
+        <f>C37+G37</f>
         <v>12.100000000000001</v>
       </c>
       <c r="I37" s="4">
-        <f t="shared" si="3"/>
+        <f>F37/H37</f>
         <v>561.98347107438008</v>
       </c>
     </row>
-    <row r="38" spans="1:9">
+    <row r="38" spans="1:9" hidden="1">
       <c r="A38" s="1" t="s">
         <v>5</v>
       </c>
@@ -2493,15 +2494,15 @@
         <v>1.64</v>
       </c>
       <c r="H38" s="5">
-        <f t="shared" si="2"/>
+        <f>C38+G38</f>
         <v>14.74</v>
       </c>
       <c r="I38" s="5">
-        <f t="shared" si="3"/>
+        <f>F38/H38</f>
         <v>454.54545454545456</v>
       </c>
     </row>
-    <row r="39" spans="1:9" ht="28">
+    <row r="39" spans="1:9" ht="28" hidden="1">
       <c r="A39" s="1" t="s">
         <v>16</v>
       </c>
@@ -2524,15 +2525,15 @@
         <v>1.45</v>
       </c>
       <c r="H39">
-        <f t="shared" si="2"/>
+        <f>C39+G39</f>
         <v>11.25</v>
       </c>
       <c r="I39" s="4">
-        <f t="shared" si="3"/>
+        <f>F39/H39</f>
         <v>648.88888888888891</v>
       </c>
     </row>
-    <row r="40" spans="1:9" ht="28">
+    <row r="40" spans="1:9" ht="28" hidden="1">
       <c r="A40" s="1" t="s">
         <v>47</v>
       </c>
@@ -2555,15 +2556,15 @@
         <v>1.45</v>
       </c>
       <c r="H40">
-        <f t="shared" si="2"/>
+        <f>C40+G40</f>
         <v>14.149999999999999</v>
       </c>
       <c r="I40" s="4">
-        <f t="shared" si="3"/>
+        <f>F40/H40</f>
         <v>416.96113074204953</v>
       </c>
     </row>
-    <row r="41" spans="1:9">
+    <row r="41" spans="1:9" hidden="1">
       <c r="A41" s="1" t="s">
         <v>5</v>
       </c>
@@ -2586,15 +2587,15 @@
         <v>1.43</v>
       </c>
       <c r="H41" s="5">
-        <f t="shared" si="2"/>
+        <f>C41+G41</f>
         <v>8.6300000000000008</v>
       </c>
       <c r="I41" s="5">
-        <f t="shared" si="3"/>
+        <f>F41/H41</f>
         <v>764.77404403244486</v>
       </c>
     </row>
-    <row r="42" spans="1:9">
+    <row r="42" spans="1:9" hidden="1">
       <c r="A42" s="1" t="s">
         <v>5</v>
       </c>
@@ -2617,15 +2618,15 @@
         <v>1.43</v>
       </c>
       <c r="H42" s="5">
-        <f t="shared" si="2"/>
+        <f>C42+G42</f>
         <v>10.43</v>
       </c>
       <c r="I42" s="5">
-        <f t="shared" si="3"/>
+        <f>F42/H42</f>
         <v>565.67593480345158</v>
       </c>
     </row>
-    <row r="43" spans="1:9" ht="28">
+    <row r="43" spans="1:9" ht="28" hidden="1">
       <c r="A43" s="1" t="s">
         <v>47</v>
       </c>
@@ -2648,15 +2649,15 @@
         <v>1.4</v>
       </c>
       <c r="H43">
-        <f t="shared" si="2"/>
+        <f>C43+G43</f>
         <v>9.8000000000000007</v>
       </c>
       <c r="I43" s="4">
-        <f t="shared" si="3"/>
+        <f>F43/H43</f>
         <v>561.22448979591832</v>
       </c>
     </row>
-    <row r="44" spans="1:9">
+    <row r="44" spans="1:9" hidden="1">
       <c r="A44" s="1" t="s">
         <v>47</v>
       </c>
@@ -2679,15 +2680,15 @@
         <v>1.33</v>
       </c>
       <c r="H44">
-        <f t="shared" si="2"/>
+        <f>C44+G44</f>
         <v>11.43</v>
       </c>
       <c r="I44" s="4">
-        <f t="shared" si="3"/>
+        <f>F44/H44</f>
         <v>498.68766404199476</v>
       </c>
     </row>
-    <row r="45" spans="1:9" ht="28">
+    <row r="45" spans="1:9" ht="28" hidden="1">
       <c r="A45" s="1" t="s">
         <v>47</v>
       </c>
@@ -2710,11 +2711,11 @@
         <v>1.33</v>
       </c>
       <c r="H45">
-        <f t="shared" si="2"/>
+        <f>C45+G45</f>
         <v>5.43</v>
       </c>
       <c r="I45" s="4">
-        <f t="shared" si="3"/>
+        <f>F45/H45</f>
         <v>939.22651933701661</v>
       </c>
     </row>
@@ -2723,33 +2724,33 @@
         <v>0</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>51</v>
+        <v>68</v>
       </c>
       <c r="C46" s="1">
-        <v>18.2</v>
+        <v>16.2</v>
       </c>
       <c r="D46" s="1">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>50</v>
+        <v>63</v>
       </c>
       <c r="F46" s="3">
-        <v>7500</v>
+        <v>7200</v>
       </c>
       <c r="G46" s="1">
-        <v>1.24</v>
+        <v>2.99</v>
       </c>
       <c r="H46">
-        <f t="shared" si="2"/>
-        <v>19.439999999999998</v>
+        <f>C46+G46</f>
+        <v>19.189999999999998</v>
       </c>
       <c r="I46" s="4">
-        <f t="shared" si="3"/>
-        <v>385.80246913580254</v>
-      </c>
-    </row>
-    <row r="47" spans="1:9" ht="28">
+        <f>F46/H46</f>
+        <v>375.19541427826999</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" ht="28" hidden="1">
       <c r="A47" s="1" t="s">
         <v>5</v>
       </c>
@@ -2772,11 +2773,11 @@
         <v>1.23</v>
       </c>
       <c r="H47" s="5">
-        <f t="shared" si="2"/>
+        <f>C47+G47</f>
         <v>3.63</v>
       </c>
       <c r="I47" s="5">
-        <f t="shared" si="3"/>
+        <f>F47/H47</f>
         <v>1625.3443526170799</v>
       </c>
     </row>
@@ -2785,33 +2786,33 @@
         <v>0</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>119</v>
+        <v>33</v>
       </c>
       <c r="C48" s="1">
-        <v>13.5</v>
+        <v>19</v>
       </c>
       <c r="D48" s="1">
-        <v>6</v>
-      </c>
-      <c r="E48" s="1" t="s">
-        <v>73</v>
+        <v>7</v>
+      </c>
+      <c r="E48" s="2" t="s">
+        <v>9</v>
       </c>
       <c r="F48" s="3">
-        <v>6000</v>
+        <v>8300</v>
       </c>
       <c r="G48" s="1">
-        <v>1.22</v>
+        <v>0.16</v>
       </c>
       <c r="H48">
-        <f t="shared" si="2"/>
-        <v>14.72</v>
+        <f>C48+G48</f>
+        <v>19.16</v>
       </c>
       <c r="I48" s="4">
-        <f t="shared" si="3"/>
-        <v>407.60869565217388</v>
-      </c>
-    </row>
-    <row r="49" spans="1:9">
+        <f>F48/H48</f>
+        <v>433.19415448851777</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9" hidden="1">
       <c r="A49" s="1" t="s">
         <v>5</v>
       </c>
@@ -2834,15 +2835,15 @@
         <v>1.17</v>
       </c>
       <c r="H49" s="5">
-        <f t="shared" si="2"/>
+        <f>C49+G49</f>
         <v>10.87</v>
       </c>
       <c r="I49" s="5">
-        <f t="shared" si="3"/>
+        <f>F49/H49</f>
         <v>542.77828886844532</v>
       </c>
     </row>
-    <row r="50" spans="1:9" ht="28">
+    <row r="50" spans="1:9" ht="28" hidden="1">
       <c r="A50" s="1" t="s">
         <v>5</v>
       </c>
@@ -2865,15 +2866,15 @@
         <v>1.17</v>
       </c>
       <c r="H50" s="5">
-        <f t="shared" si="2"/>
+        <f>C50+G50</f>
         <v>8.07</v>
       </c>
       <c r="I50" s="5">
-        <f t="shared" si="3"/>
+        <f>F50/H50</f>
         <v>718.71127633209414</v>
       </c>
     </row>
-    <row r="51" spans="1:9">
+    <row r="51" spans="1:9" hidden="1">
       <c r="A51" s="1" t="s">
         <v>47</v>
       </c>
@@ -2896,15 +2897,15 @@
         <v>1.1200000000000001</v>
       </c>
       <c r="H51">
-        <f t="shared" si="2"/>
+        <f>C51+G51</f>
         <v>11.219999999999999</v>
       </c>
       <c r="I51" s="4">
-        <f t="shared" si="3"/>
+        <f>F51/H51</f>
         <v>534.75935828877016</v>
       </c>
     </row>
-    <row r="52" spans="1:9">
+    <row r="52" spans="1:9" hidden="1">
       <c r="A52" s="1" t="s">
         <v>47</v>
       </c>
@@ -2927,15 +2928,15 @@
         <v>1.1200000000000001</v>
       </c>
       <c r="H52">
-        <f t="shared" si="2"/>
+        <f>C52+G52</f>
         <v>7.92</v>
       </c>
       <c r="I52" s="4">
-        <f t="shared" si="3"/>
+        <f>F52/H52</f>
         <v>681.81818181818187</v>
       </c>
     </row>
-    <row r="53" spans="1:9">
+    <row r="53" spans="1:9" hidden="1">
       <c r="A53" s="1" t="s">
         <v>16</v>
       </c>
@@ -2958,15 +2959,15 @@
         <v>1.01</v>
       </c>
       <c r="H53">
-        <f t="shared" si="2"/>
+        <f>C53+G53</f>
         <v>8.81</v>
       </c>
       <c r="I53" s="4">
-        <f t="shared" si="3"/>
+        <f>F53/H53</f>
         <v>703.74574347332577</v>
       </c>
     </row>
-    <row r="54" spans="1:9">
+    <row r="54" spans="1:9" hidden="1">
       <c r="A54" s="1" t="s">
         <v>47</v>
       </c>
@@ -2989,15 +2990,15 @@
         <v>0.97</v>
       </c>
       <c r="H54">
-        <f t="shared" si="2"/>
+        <f>C54+G54</f>
         <v>5.27</v>
       </c>
       <c r="I54" s="4">
-        <f t="shared" si="3"/>
+        <f>F54/H54</f>
         <v>1119.5445920303607</v>
       </c>
     </row>
-    <row r="55" spans="1:9">
+    <row r="55" spans="1:9" hidden="1">
       <c r="A55" s="1" t="s">
         <v>47</v>
       </c>
@@ -3020,15 +3021,15 @@
         <v>0.97</v>
       </c>
       <c r="H55">
-        <f t="shared" si="2"/>
+        <f>C55+G55</f>
         <v>7.27</v>
       </c>
       <c r="I55" s="4">
-        <f t="shared" si="3"/>
+        <f>F55/H55</f>
         <v>784.04401650618991</v>
       </c>
     </row>
-    <row r="56" spans="1:9" ht="28">
+    <row r="56" spans="1:9" ht="28" hidden="1">
       <c r="A56" s="1" t="s">
         <v>16</v>
       </c>
@@ -3051,15 +3052,15 @@
         <v>0.96</v>
       </c>
       <c r="H56">
-        <f t="shared" si="2"/>
+        <f>C56+G56</f>
         <v>8.26</v>
       </c>
       <c r="I56" s="4">
-        <f t="shared" si="3"/>
+        <f>F56/H56</f>
         <v>799.03147699757869</v>
       </c>
     </row>
-    <row r="57" spans="1:9">
+    <row r="57" spans="1:9" hidden="1">
       <c r="A57" s="1" t="s">
         <v>16</v>
       </c>
@@ -3082,15 +3083,15 @@
         <v>0.91</v>
       </c>
       <c r="H57">
-        <f t="shared" si="2"/>
+        <f>C57+G57</f>
         <v>12.51</v>
       </c>
       <c r="I57" s="4">
-        <f t="shared" si="3"/>
+        <f>F57/H57</f>
         <v>615.50759392486009</v>
       </c>
     </row>
-    <row r="58" spans="1:9" ht="28">
+    <row r="58" spans="1:9" ht="28" hidden="1">
       <c r="A58" s="1" t="s">
         <v>16</v>
       </c>
@@ -3113,15 +3114,15 @@
         <v>0.87</v>
       </c>
       <c r="H58">
-        <f t="shared" si="2"/>
+        <f>C58+G58</f>
         <v>10.469999999999999</v>
       </c>
       <c r="I58" s="4">
-        <f t="shared" si="3"/>
+        <f>F58/H58</f>
         <v>563.51480420248333</v>
       </c>
     </row>
-    <row r="59" spans="1:9">
+    <row r="59" spans="1:9" hidden="1">
       <c r="A59" s="1" t="s">
         <v>16</v>
       </c>
@@ -3144,11 +3145,11 @@
         <v>0.87</v>
       </c>
       <c r="H59">
-        <f t="shared" si="2"/>
+        <f>C59+G59</f>
         <v>12.069999999999999</v>
       </c>
       <c r="I59" s="4">
-        <f t="shared" si="3"/>
+        <f>F59/H59</f>
         <v>455.67522783761399</v>
       </c>
     </row>
@@ -3157,33 +3158,33 @@
         <v>0</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="C60" s="1">
-        <v>16.2</v>
+        <v>17.8</v>
       </c>
       <c r="D60" s="1">
-        <v>7</v>
-      </c>
-      <c r="E60" s="1" t="s">
-        <v>26</v>
+        <v>6</v>
+      </c>
+      <c r="E60" s="2" t="s">
+        <v>29</v>
       </c>
       <c r="F60" s="3">
-        <v>8600</v>
+        <v>8400</v>
       </c>
       <c r="G60" s="1">
-        <v>0.84</v>
+        <v>0.13</v>
       </c>
       <c r="H60">
-        <f t="shared" si="2"/>
-        <v>17.04</v>
+        <f>C60+G60</f>
+        <v>17.93</v>
       </c>
       <c r="I60" s="4">
-        <f t="shared" si="3"/>
-        <v>504.69483568075123</v>
-      </c>
-    </row>
-    <row r="61" spans="1:9" ht="28">
+        <f>F60/H60</f>
+        <v>468.48856664807585</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9" ht="28" hidden="1">
       <c r="A61" s="1" t="s">
         <v>5</v>
       </c>
@@ -3206,15 +3207,15 @@
         <v>0.65</v>
       </c>
       <c r="H61" s="5">
-        <f t="shared" si="2"/>
+        <f>C61+G61</f>
         <v>11.25</v>
       </c>
       <c r="I61" s="5">
-        <f t="shared" si="3"/>
+        <f>F61/H61</f>
         <v>604.44444444444446</v>
       </c>
     </row>
-    <row r="62" spans="1:9" ht="28">
+    <row r="62" spans="1:9" ht="28" hidden="1">
       <c r="A62" s="1" t="s">
         <v>16</v>
       </c>
@@ -3237,15 +3238,15 @@
         <v>0.57999999999999996</v>
       </c>
       <c r="H62">
-        <f t="shared" si="2"/>
+        <f>C62+G62</f>
         <v>6.98</v>
       </c>
       <c r="I62" s="4">
-        <f t="shared" si="3"/>
+        <f>F62/H62</f>
         <v>845.27220630372483</v>
       </c>
     </row>
-    <row r="63" spans="1:9" ht="28">
+    <row r="63" spans="1:9" ht="28" hidden="1">
       <c r="A63" s="1" t="s">
         <v>5</v>
       </c>
@@ -3268,15 +3269,15 @@
         <v>0.51</v>
       </c>
       <c r="H63" s="5">
-        <f t="shared" si="2"/>
+        <f>C63+G63</f>
         <v>15.11</v>
       </c>
       <c r="I63" s="5">
-        <f t="shared" si="3"/>
+        <f>F63/H63</f>
         <v>489.7418927862343</v>
       </c>
     </row>
-    <row r="64" spans="1:9" ht="28">
+    <row r="64" spans="1:9" ht="28" hidden="1">
       <c r="A64" s="1" t="s">
         <v>16</v>
       </c>
@@ -3299,15 +3300,15 @@
         <v>0.5</v>
       </c>
       <c r="H64">
-        <f t="shared" si="2"/>
+        <f>C64+G64</f>
         <v>8.9</v>
       </c>
       <c r="I64" s="4">
-        <f t="shared" si="3"/>
+        <f>F64/H64</f>
         <v>752.8089887640449</v>
       </c>
     </row>
-    <row r="65" spans="1:9">
+    <row r="65" spans="1:9" hidden="1">
       <c r="A65" s="1" t="s">
         <v>47</v>
       </c>
@@ -3330,15 +3331,15 @@
         <v>0.49</v>
       </c>
       <c r="H65">
-        <f t="shared" si="2"/>
+        <f>C65+G65</f>
         <v>14.790000000000001</v>
       </c>
       <c r="I65" s="4">
-        <f t="shared" si="3"/>
+        <f>F65/H65</f>
         <v>513.86071670047329</v>
       </c>
     </row>
-    <row r="66" spans="1:9">
+    <row r="66" spans="1:9" hidden="1">
       <c r="A66" s="1" t="s">
         <v>47</v>
       </c>
@@ -3361,15 +3362,15 @@
         <v>0.49</v>
       </c>
       <c r="H66">
-        <f t="shared" ref="H66:H97" si="4">C66+G66</f>
+        <f>C66+G66</f>
         <v>0.89</v>
       </c>
       <c r="I66" s="4">
-        <f t="shared" ref="I66:I97" si="5">F66/H66</f>
+        <f>F66/H66</f>
         <v>5168.5393258426966</v>
       </c>
     </row>
-    <row r="67" spans="1:9">
+    <row r="67" spans="1:9" hidden="1">
       <c r="A67" s="1" t="s">
         <v>47</v>
       </c>
@@ -3392,15 +3393,15 @@
         <v>0.48</v>
       </c>
       <c r="H67">
-        <f t="shared" si="4"/>
+        <f>C67+G67</f>
         <v>0.48</v>
       </c>
       <c r="I67" s="4">
-        <f t="shared" si="5"/>
+        <f>F67/H67</f>
         <v>9375</v>
       </c>
     </row>
-    <row r="68" spans="1:9" ht="28">
+    <row r="68" spans="1:9" ht="28" hidden="1">
       <c r="A68" s="1" t="s">
         <v>47</v>
       </c>
@@ -3423,15 +3424,15 @@
         <v>0.48</v>
       </c>
       <c r="H68">
-        <f t="shared" si="4"/>
+        <f>C68+G68</f>
         <v>1.58</v>
       </c>
       <c r="I68" s="4">
-        <f t="shared" si="5"/>
+        <f>F68/H68</f>
         <v>2848.1012658227846</v>
       </c>
     </row>
-    <row r="69" spans="1:9">
+    <row r="69" spans="1:9" hidden="1">
       <c r="A69" s="1" t="s">
         <v>47</v>
       </c>
@@ -3454,15 +3455,15 @@
         <v>0.44</v>
       </c>
       <c r="H69">
-        <f t="shared" si="4"/>
+        <f>C69+G69</f>
         <v>8.84</v>
       </c>
       <c r="I69" s="4">
-        <f t="shared" si="5"/>
+        <f>F69/H69</f>
         <v>610.85972850678729</v>
       </c>
     </row>
-    <row r="70" spans="1:9">
+    <row r="70" spans="1:9" hidden="1">
       <c r="A70" s="1" t="s">
         <v>5</v>
       </c>
@@ -3485,15 +3486,15 @@
         <v>0.4</v>
       </c>
       <c r="H70" s="5">
-        <f t="shared" si="4"/>
+        <f>C70+G70</f>
         <v>11</v>
       </c>
       <c r="I70" s="5">
-        <f t="shared" si="5"/>
+        <f>F70/H70</f>
         <v>718.18181818181813</v>
       </c>
     </row>
-    <row r="71" spans="1:9" ht="28">
+    <row r="71" spans="1:9" ht="28" hidden="1">
       <c r="A71" s="1" t="s">
         <v>5</v>
       </c>
@@ -3516,15 +3517,15 @@
         <v>0.38</v>
       </c>
       <c r="H71" s="5">
-        <f t="shared" si="4"/>
+        <f>C71+G71</f>
         <v>15.38</v>
       </c>
       <c r="I71" s="5">
-        <f t="shared" si="5"/>
+        <f>F71/H71</f>
         <v>455.13654096228868</v>
       </c>
     </row>
-    <row r="72" spans="1:9" ht="28">
+    <row r="72" spans="1:9" ht="28" hidden="1">
       <c r="A72" s="1" t="s">
         <v>16</v>
       </c>
@@ -3547,15 +3548,15 @@
         <v>0.35</v>
       </c>
       <c r="H72">
-        <f t="shared" si="4"/>
+        <f>C72+G72</f>
         <v>11.65</v>
       </c>
       <c r="I72" s="4">
-        <f t="shared" si="5"/>
+        <f>F72/H72</f>
         <v>583.6909871244635</v>
       </c>
     </row>
-    <row r="73" spans="1:9">
+    <row r="73" spans="1:9" hidden="1">
       <c r="A73" s="1" t="s">
         <v>47</v>
       </c>
@@ -3578,15 +3579,15 @@
         <v>0.28000000000000003</v>
       </c>
       <c r="H73">
-        <f t="shared" si="4"/>
+        <f>C73+G73</f>
         <v>6.48</v>
       </c>
       <c r="I73" s="4">
-        <f t="shared" si="5"/>
+        <f>F73/H73</f>
         <v>833.33333333333326</v>
       </c>
     </row>
-    <row r="74" spans="1:9">
+    <row r="74" spans="1:9" hidden="1">
       <c r="A74" s="1" t="s">
         <v>47</v>
       </c>
@@ -3609,15 +3610,15 @@
         <v>0.28000000000000003</v>
       </c>
       <c r="H74">
-        <f t="shared" si="4"/>
+        <f>C74+G74</f>
         <v>2.7800000000000002</v>
       </c>
       <c r="I74" s="4">
-        <f t="shared" si="5"/>
+        <f>F74/H74</f>
         <v>1726.6187050359711</v>
       </c>
     </row>
-    <row r="75" spans="1:9" ht="28">
+    <row r="75" spans="1:9" ht="28" hidden="1">
       <c r="A75" s="1" t="s">
         <v>5</v>
       </c>
@@ -3640,15 +3641,15 @@
         <v>0.21</v>
       </c>
       <c r="H75" s="5">
-        <f t="shared" si="4"/>
+        <f>C75+G75</f>
         <v>5.51</v>
       </c>
       <c r="I75" s="5">
-        <f t="shared" si="5"/>
+        <f>F75/H75</f>
         <v>1161.5245009074411</v>
       </c>
     </row>
-    <row r="76" spans="1:9">
+    <row r="76" spans="1:9" hidden="1">
       <c r="A76" s="1" t="s">
         <v>16</v>
       </c>
@@ -3671,11 +3672,11 @@
         <v>0.17</v>
       </c>
       <c r="H76">
-        <f t="shared" si="4"/>
+        <f>C76+G76</f>
         <v>15.17</v>
       </c>
       <c r="I76" s="4">
-        <f t="shared" si="5"/>
+        <f>F76/H76</f>
         <v>494.39683586025052</v>
       </c>
     </row>
@@ -3684,30 +3685,30 @@
         <v>0</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>33</v>
+        <v>10</v>
       </c>
       <c r="C77" s="1">
-        <v>19</v>
+        <v>19.3</v>
       </c>
       <c r="D77" s="1">
-        <v>7</v>
-      </c>
-      <c r="E77" s="2" t="s">
-        <v>9</v>
+        <v>6</v>
+      </c>
+      <c r="E77" s="1" t="s">
+        <v>11</v>
       </c>
       <c r="F77" s="3">
-        <v>8300</v>
+        <v>9100</v>
       </c>
       <c r="G77" s="1">
-        <v>0.16</v>
+        <v>-1.67</v>
       </c>
       <c r="H77">
-        <f t="shared" si="4"/>
-        <v>19.16</v>
+        <f>C77+G77</f>
+        <v>17.630000000000003</v>
       </c>
       <c r="I77" s="4">
-        <f t="shared" si="5"/>
-        <v>433.19415448851777</v>
+        <f>F77/H77</f>
+        <v>516.16562677254672</v>
       </c>
     </row>
     <row r="78" spans="1:9" ht="28">
@@ -3715,30 +3716,30 @@
         <v>0</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="C78" s="1">
-        <v>17.8</v>
+        <v>16.2</v>
       </c>
       <c r="D78" s="1">
-        <v>6</v>
-      </c>
-      <c r="E78" s="2" t="s">
-        <v>29</v>
+        <v>7</v>
+      </c>
+      <c r="E78" s="1" t="s">
+        <v>26</v>
       </c>
       <c r="F78" s="3">
-        <v>8400</v>
+        <v>8600</v>
       </c>
       <c r="G78" s="1">
-        <v>0.13</v>
+        <v>0.84</v>
       </c>
       <c r="H78">
-        <f t="shared" si="4"/>
-        <v>17.93</v>
+        <f>C78+G78</f>
+        <v>17.04</v>
       </c>
       <c r="I78" s="4">
-        <f t="shared" si="5"/>
-        <v>468.48856664807585</v>
+        <f>F78/H78</f>
+        <v>504.69483568075123</v>
       </c>
     </row>
     <row r="79" spans="1:9" ht="28">
@@ -3746,30 +3747,30 @@
         <v>0</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="C79" s="1">
-        <v>13.4</v>
+        <v>18.2</v>
       </c>
       <c r="D79" s="1">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="E79" s="1" t="s">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="F79" s="3">
-        <v>6900</v>
+        <v>8100</v>
       </c>
       <c r="G79" s="1">
-        <v>0.1</v>
+        <v>-1.57</v>
       </c>
       <c r="H79">
-        <f t="shared" si="4"/>
-        <v>13.5</v>
+        <f>C79+G79</f>
+        <v>16.63</v>
       </c>
       <c r="I79" s="4">
-        <f t="shared" si="5"/>
-        <v>511.11111111111109</v>
+        <f>F79/H79</f>
+        <v>487.07155742633796</v>
       </c>
     </row>
     <row r="80" spans="1:9">
@@ -3777,30 +3778,30 @@
         <v>0</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>99</v>
+        <v>34</v>
       </c>
       <c r="C80" s="1">
-        <v>14.8</v>
+        <v>16.2</v>
       </c>
       <c r="D80" s="1">
-        <v>4</v>
-      </c>
-      <c r="E80" s="1" t="s">
-        <v>80</v>
+        <v>6</v>
+      </c>
+      <c r="E80" s="2" t="s">
+        <v>35</v>
       </c>
       <c r="F80" s="3">
-        <v>6500</v>
+        <v>8200</v>
       </c>
       <c r="G80" s="1">
-        <v>0.1</v>
+        <v>-0.94</v>
       </c>
       <c r="H80">
-        <f t="shared" si="4"/>
-        <v>14.9</v>
+        <f>C80+G80</f>
+        <v>15.26</v>
       </c>
       <c r="I80" s="4">
-        <f t="shared" si="5"/>
-        <v>436.24161073825502</v>
+        <f>F80/H80</f>
+        <v>537.35255570117954</v>
       </c>
     </row>
     <row r="81" spans="1:9" ht="28">
@@ -3808,33 +3809,33 @@
         <v>0</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>152</v>
+        <v>146</v>
       </c>
       <c r="C81" s="1">
-        <v>-0.3</v>
+        <v>11.2</v>
       </c>
       <c r="D81" s="1">
-        <v>1</v>
-      </c>
-      <c r="E81" s="1" t="s">
-        <v>80</v>
+        <v>4</v>
+      </c>
+      <c r="E81" s="2" t="s">
+        <v>118</v>
       </c>
       <c r="F81" s="3">
-        <v>5200</v>
+        <v>5400</v>
       </c>
       <c r="G81" s="1">
-        <v>0.1</v>
+        <v>3.76</v>
       </c>
       <c r="H81">
-        <f t="shared" si="4"/>
-        <v>-0.19999999999999998</v>
+        <f>C81+G81</f>
+        <v>14.959999999999999</v>
       </c>
       <c r="I81" s="4">
-        <f t="shared" si="5"/>
-        <v>-26000.000000000004</v>
-      </c>
-    </row>
-    <row r="82" spans="1:9">
+        <f>F81/H81</f>
+        <v>360.96256684491982</v>
+      </c>
+    </row>
+    <row r="82" spans="1:9" hidden="1">
       <c r="A82" s="1" t="s">
         <v>16</v>
       </c>
@@ -3857,11 +3858,11 @@
         <v>0.06</v>
       </c>
       <c r="H82">
-        <f t="shared" si="4"/>
+        <f>C82+G82</f>
         <v>7.56</v>
       </c>
       <c r="I82" s="4">
-        <f t="shared" si="5"/>
+        <f>F82/H82</f>
         <v>859.7883597883598</v>
       </c>
     </row>
@@ -3870,33 +3871,33 @@
         <v>0</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>76</v>
+        <v>99</v>
       </c>
       <c r="C83" s="1">
-        <v>13.1</v>
+        <v>14.8</v>
       </c>
       <c r="D83" s="1">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="E83" s="1" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="F83" s="3">
-        <v>7000</v>
+        <v>6500</v>
       </c>
       <c r="G83" s="1">
-        <v>0.01</v>
+        <v>0.1</v>
       </c>
       <c r="H83">
-        <f t="shared" si="4"/>
-        <v>13.11</v>
+        <f>C83+G83</f>
+        <v>14.9</v>
       </c>
       <c r="I83" s="4">
-        <f t="shared" si="5"/>
-        <v>533.94355453852029</v>
-      </c>
-    </row>
-    <row r="84" spans="1:9">
+        <f>F83/H83</f>
+        <v>436.24161073825502</v>
+      </c>
+    </row>
+    <row r="84" spans="1:9" hidden="1">
       <c r="A84" s="1" t="s">
         <v>16</v>
       </c>
@@ -3919,15 +3920,15 @@
         <v>0</v>
       </c>
       <c r="H84">
-        <f t="shared" si="4"/>
+        <f>C84+G84</f>
         <v>12.6</v>
       </c>
       <c r="I84" s="4">
-        <f t="shared" si="5"/>
+        <f>F84/H84</f>
         <v>666.66666666666663</v>
       </c>
     </row>
-    <row r="85" spans="1:9">
+    <row r="85" spans="1:9" hidden="1">
       <c r="A85" s="1" t="s">
         <v>16</v>
       </c>
@@ -3950,15 +3951,15 @@
         <v>0</v>
       </c>
       <c r="H85">
-        <f t="shared" si="4"/>
+        <f>C85+G85</f>
         <v>14.4</v>
       </c>
       <c r="I85" s="4">
-        <f t="shared" si="5"/>
+        <f>F85/H85</f>
         <v>548.61111111111109</v>
       </c>
     </row>
-    <row r="86" spans="1:9">
+    <row r="86" spans="1:9" hidden="1">
       <c r="A86" s="1" t="s">
         <v>47</v>
       </c>
@@ -3981,15 +3982,15 @@
         <v>0</v>
       </c>
       <c r="H86">
-        <f t="shared" si="4"/>
+        <f>C86+G86</f>
         <v>9.4</v>
       </c>
       <c r="I86" s="4">
-        <f t="shared" si="5"/>
+        <f>F86/H86</f>
         <v>574.468085106383</v>
       </c>
     </row>
-    <row r="87" spans="1:9" ht="28">
+    <row r="87" spans="1:9" ht="28" hidden="1">
       <c r="A87" s="1" t="s">
         <v>47</v>
       </c>
@@ -4012,15 +4013,15 @@
         <v>-0.06</v>
       </c>
       <c r="H87">
-        <f t="shared" si="4"/>
+        <f>C87+G87</f>
         <v>10.94</v>
       </c>
       <c r="I87" s="4">
-        <f t="shared" si="5"/>
+        <f>F87/H87</f>
         <v>511.88299817184645</v>
       </c>
     </row>
-    <row r="88" spans="1:9" ht="28">
+    <row r="88" spans="1:9" ht="28" hidden="1">
       <c r="A88" s="1" t="s">
         <v>47</v>
       </c>
@@ -4043,15 +4044,15 @@
         <v>-0.06</v>
       </c>
       <c r="H88">
-        <f t="shared" si="4"/>
+        <f>C88+G88</f>
         <v>2.94</v>
       </c>
       <c r="I88" s="4">
-        <f t="shared" si="5"/>
+        <f>F88/H88</f>
         <v>1700.6802721088436</v>
       </c>
     </row>
-    <row r="89" spans="1:9" ht="28">
+    <row r="89" spans="1:9" ht="28" hidden="1">
       <c r="A89" s="1" t="s">
         <v>16</v>
       </c>
@@ -4074,15 +4075,15 @@
         <v>-7.0000000000000007E-2</v>
       </c>
       <c r="H89">
-        <f t="shared" si="4"/>
+        <f>C89+G89</f>
         <v>7.43</v>
       </c>
       <c r="I89" s="4">
-        <f t="shared" si="5"/>
+        <f>F89/H89</f>
         <v>807.5370121130552</v>
       </c>
     </row>
-    <row r="90" spans="1:9" ht="28">
+    <row r="90" spans="1:9" ht="28" hidden="1">
       <c r="A90" s="1" t="s">
         <v>16</v>
       </c>
@@ -4105,15 +4106,15 @@
         <v>-0.36</v>
       </c>
       <c r="H90">
-        <f t="shared" si="4"/>
+        <f>C90+G90</f>
         <v>8.24</v>
       </c>
       <c r="I90" s="4">
-        <f t="shared" si="5"/>
+        <f>F90/H90</f>
         <v>728.15533980582518</v>
       </c>
     </row>
-    <row r="91" spans="1:9" ht="28">
+    <row r="91" spans="1:9" ht="28" hidden="1">
       <c r="A91" s="1" t="s">
         <v>16</v>
       </c>
@@ -4136,15 +4137,15 @@
         <v>-0.49</v>
       </c>
       <c r="H91">
-        <f t="shared" si="4"/>
+        <f>C91+G91</f>
         <v>9.01</v>
       </c>
       <c r="I91" s="4">
-        <f t="shared" si="5"/>
+        <f>F91/H91</f>
         <v>710.32186459489458</v>
       </c>
     </row>
-    <row r="92" spans="1:9">
+    <row r="92" spans="1:9" hidden="1">
       <c r="A92" s="1" t="s">
         <v>5</v>
       </c>
@@ -4167,15 +4168,15 @@
         <v>-0.49</v>
       </c>
       <c r="H92" s="5">
-        <f t="shared" si="4"/>
+        <f>C92+G92</f>
         <v>13.01</v>
       </c>
       <c r="I92" s="5">
-        <f t="shared" si="5"/>
+        <f>F92/H92</f>
         <v>468.87009992313608</v>
       </c>
     </row>
-    <row r="93" spans="1:9" ht="28">
+    <row r="93" spans="1:9" ht="28" hidden="1">
       <c r="A93" s="1" t="s">
         <v>47</v>
       </c>
@@ -4198,11 +4199,11 @@
         <v>-0.6</v>
       </c>
       <c r="H93">
-        <f t="shared" si="4"/>
+        <f>C93+G93</f>
         <v>11.200000000000001</v>
       </c>
       <c r="I93" s="4">
-        <f t="shared" si="5"/>
+        <f>F93/H93</f>
         <v>624.99999999999989</v>
       </c>
     </row>
@@ -4211,33 +4212,33 @@
         <v>0</v>
       </c>
       <c r="B94" s="1" t="s">
-        <v>106</v>
+        <v>119</v>
       </c>
       <c r="C94" s="1">
-        <v>14.1</v>
+        <v>13.5</v>
       </c>
       <c r="D94" s="1">
-        <v>7</v>
-      </c>
-      <c r="E94" s="2" t="s">
-        <v>13</v>
+        <v>6</v>
+      </c>
+      <c r="E94" s="1" t="s">
+        <v>73</v>
       </c>
       <c r="F94" s="3">
-        <v>6300</v>
+        <v>6000</v>
       </c>
       <c r="G94" s="1">
-        <v>-0.68</v>
+        <v>1.22</v>
       </c>
       <c r="H94">
-        <f t="shared" si="4"/>
-        <v>13.42</v>
+        <f>C94+G94</f>
+        <v>14.72</v>
       </c>
       <c r="I94" s="4">
-        <f t="shared" si="5"/>
-        <v>469.44858420268258</v>
-      </c>
-    </row>
-    <row r="95" spans="1:9">
+        <f>F94/H94</f>
+        <v>407.60869565217388</v>
+      </c>
+    </row>
+    <row r="95" spans="1:9" hidden="1">
       <c r="A95" s="1" t="s">
         <v>16</v>
       </c>
@@ -4260,15 +4261,15 @@
         <v>-0.82</v>
       </c>
       <c r="H95">
-        <f t="shared" si="4"/>
+        <f>C95+G95</f>
         <v>12.58</v>
       </c>
       <c r="I95" s="4">
-        <f t="shared" si="5"/>
+        <f>F95/H95</f>
         <v>596.18441971383152</v>
       </c>
     </row>
-    <row r="96" spans="1:9">
+    <row r="96" spans="1:9" hidden="1">
       <c r="A96" s="1" t="s">
         <v>5</v>
       </c>
@@ -4291,15 +4292,15 @@
         <v>-0.83</v>
       </c>
       <c r="H96" s="5">
-        <f t="shared" si="4"/>
+        <f>C96+G96</f>
         <v>18.87</v>
       </c>
       <c r="I96" s="5">
-        <f t="shared" si="5"/>
+        <f>F96/H96</f>
         <v>482.2469528351881</v>
       </c>
     </row>
-    <row r="97" spans="1:9">
+    <row r="97" spans="1:9" hidden="1">
       <c r="A97" s="1" t="s">
         <v>16</v>
       </c>
@@ -4322,11 +4323,11 @@
         <v>-0.92</v>
       </c>
       <c r="H97">
-        <f t="shared" si="4"/>
+        <f>C97+G97</f>
         <v>9.48</v>
       </c>
       <c r="I97" s="4">
-        <f t="shared" si="5"/>
+        <f>F97/H97</f>
         <v>664.55696202531647</v>
       </c>
     </row>
@@ -4335,7 +4336,7 @@
         <v>0</v>
       </c>
       <c r="B98" s="1" t="s">
-        <v>34</v>
+        <v>86</v>
       </c>
       <c r="C98" s="1">
         <v>16.2</v>
@@ -4344,24 +4345,24 @@
         <v>6</v>
       </c>
       <c r="E98" s="2" t="s">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="F98" s="3">
-        <v>8200</v>
+        <v>6800</v>
       </c>
       <c r="G98" s="1">
-        <v>-0.94</v>
+        <v>-1.61</v>
       </c>
       <c r="H98">
-        <f t="shared" ref="H98:H129" si="6">C98+G98</f>
-        <v>15.26</v>
+        <f>C98+G98</f>
+        <v>14.59</v>
       </c>
       <c r="I98" s="4">
-        <f t="shared" ref="I98:I129" si="7">F98/H98</f>
-        <v>537.35255570117954</v>
-      </c>
-    </row>
-    <row r="99" spans="1:9" ht="28">
+        <f>F98/H98</f>
+        <v>466.07265250171349</v>
+      </c>
+    </row>
+    <row r="99" spans="1:9" ht="28" hidden="1">
       <c r="A99" s="1" t="s">
         <v>47</v>
       </c>
@@ -4384,15 +4385,15 @@
         <v>-0.96</v>
       </c>
       <c r="H99">
-        <f t="shared" si="6"/>
+        <f>C99+G99</f>
         <v>5.44</v>
       </c>
       <c r="I99" s="4">
-        <f t="shared" si="7"/>
+        <f>F99/H99</f>
         <v>1066.1764705882351</v>
       </c>
     </row>
-    <row r="100" spans="1:9">
+    <row r="100" spans="1:9" hidden="1">
       <c r="A100" s="1" t="s">
         <v>47</v>
       </c>
@@ -4415,15 +4416,15 @@
         <v>-0.98</v>
       </c>
       <c r="H100">
-        <f t="shared" si="6"/>
+        <f>C100+G100</f>
         <v>3.72</v>
       </c>
       <c r="I100" s="4">
-        <f t="shared" si="7"/>
+        <f>F100/H100</f>
         <v>1505.3763440860214</v>
       </c>
     </row>
-    <row r="101" spans="1:9" ht="28">
+    <row r="101" spans="1:9" ht="28" hidden="1">
       <c r="A101" s="1" t="s">
         <v>5</v>
       </c>
@@ -4446,15 +4447,15 @@
         <v>-1</v>
       </c>
       <c r="H101" s="5">
-        <f t="shared" si="6"/>
+        <f>C101+G101</f>
         <v>8.8000000000000007</v>
       </c>
       <c r="I101" s="5">
-        <f t="shared" si="7"/>
+        <f>F101/H101</f>
         <v>772.72727272727263</v>
       </c>
     </row>
-    <row r="102" spans="1:9">
+    <row r="102" spans="1:9" hidden="1">
       <c r="A102" s="1" t="s">
         <v>5</v>
       </c>
@@ -4477,15 +4478,15 @@
         <v>-1.1599999999999999</v>
       </c>
       <c r="H102" s="5">
-        <f t="shared" si="6"/>
+        <f>C102+G102</f>
         <v>6.14</v>
       </c>
       <c r="I102" s="5">
-        <f t="shared" si="7"/>
+        <f>F102/H102</f>
         <v>1172.6384364820847</v>
       </c>
     </row>
-    <row r="103" spans="1:9" ht="28">
+    <row r="103" spans="1:9" ht="28" hidden="1">
       <c r="A103" s="1" t="s">
         <v>16</v>
       </c>
@@ -4508,15 +4509,15 @@
         <v>-1.19</v>
       </c>
       <c r="H103">
-        <f t="shared" si="6"/>
+        <f>C103+G103</f>
         <v>6.51</v>
       </c>
       <c r="I103" s="4">
-        <f t="shared" si="7"/>
+        <f>F103/H103</f>
         <v>921.65898617511527</v>
       </c>
     </row>
-    <row r="104" spans="1:9">
+    <row r="104" spans="1:9" hidden="1">
       <c r="A104" s="1" t="s">
         <v>5</v>
       </c>
@@ -4539,15 +4540,15 @@
         <v>-1.22</v>
       </c>
       <c r="H104" s="5">
-        <f t="shared" si="6"/>
+        <f>C104+G104</f>
         <v>12.68</v>
       </c>
       <c r="I104" s="5">
-        <f t="shared" si="7"/>
+        <f>F104/H104</f>
         <v>583.59621451104101</v>
       </c>
     </row>
-    <row r="105" spans="1:9">
+    <row r="105" spans="1:9" hidden="1">
       <c r="A105" s="1" t="s">
         <v>47</v>
       </c>
@@ -4570,11 +4571,11 @@
         <v>-1.26</v>
       </c>
       <c r="H105">
-        <f t="shared" si="6"/>
+        <f>C105+G105</f>
         <v>6.24</v>
       </c>
       <c r="I105" s="4">
-        <f t="shared" si="7"/>
+        <f>F105/H105</f>
         <v>817.30769230769226</v>
       </c>
     </row>
@@ -4583,33 +4584,33 @@
         <v>0</v>
       </c>
       <c r="B106" s="1" t="s">
-        <v>3</v>
+        <v>88</v>
       </c>
       <c r="C106" s="1">
-        <v>25.7</v>
+        <v>16.600000000000001</v>
       </c>
       <c r="D106" s="1">
-        <v>7</v>
-      </c>
-      <c r="E106" s="2" t="s">
         <v>4</v>
       </c>
+      <c r="E106" s="1" t="s">
+        <v>65</v>
+      </c>
       <c r="F106" s="3">
-        <v>9900</v>
+        <v>6800</v>
       </c>
       <c r="G106" s="1">
-        <v>-1.31</v>
+        <v>-2.5299999999999998</v>
       </c>
       <c r="H106">
-        <f t="shared" si="6"/>
-        <v>24.39</v>
+        <f>C106+G106</f>
+        <v>14.070000000000002</v>
       </c>
       <c r="I106" s="4">
-        <f t="shared" si="7"/>
-        <v>405.90405904059037</v>
-      </c>
-    </row>
-    <row r="107" spans="1:9" ht="28">
+        <f>F106/H106</f>
+        <v>483.29779673063246</v>
+      </c>
+    </row>
+    <row r="107" spans="1:9" ht="28" hidden="1">
       <c r="A107" s="1" t="s">
         <v>16</v>
       </c>
@@ -4632,15 +4633,15 @@
         <v>-1.32</v>
       </c>
       <c r="H107">
-        <f t="shared" si="6"/>
+        <f>C107+G107</f>
         <v>7.58</v>
       </c>
       <c r="I107" s="4">
-        <f t="shared" si="7"/>
+        <f>F107/H107</f>
         <v>791.55672823218993</v>
       </c>
     </row>
-    <row r="108" spans="1:9" ht="28">
+    <row r="108" spans="1:9" ht="28" hidden="1">
       <c r="A108" s="1" t="s">
         <v>47</v>
       </c>
@@ -4663,11 +4664,11 @@
         <v>-1.41</v>
       </c>
       <c r="H108">
-        <f t="shared" si="6"/>
+        <f>C108+G108</f>
         <v>3.59</v>
       </c>
       <c r="I108" s="4">
-        <f t="shared" si="7"/>
+        <f>F108/H108</f>
         <v>1476.3231197771588</v>
       </c>
     </row>
@@ -4676,33 +4677,33 @@
         <v>0</v>
       </c>
       <c r="B109" s="1" t="s">
-        <v>37</v>
+        <v>79</v>
       </c>
       <c r="C109" s="1">
-        <v>18.2</v>
+        <v>13.4</v>
       </c>
       <c r="D109" s="1">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="E109" s="1" t="s">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="F109" s="3">
-        <v>8100</v>
+        <v>6900</v>
       </c>
       <c r="G109" s="1">
-        <v>-1.57</v>
+        <v>0.1</v>
       </c>
       <c r="H109">
-        <f t="shared" si="6"/>
-        <v>16.63</v>
+        <f>C109+G109</f>
+        <v>13.5</v>
       </c>
       <c r="I109" s="4">
-        <f t="shared" si="7"/>
-        <v>487.07155742633796</v>
-      </c>
-    </row>
-    <row r="110" spans="1:9" ht="28">
+        <f>F109/H109</f>
+        <v>511.11111111111109</v>
+      </c>
+    </row>
+    <row r="110" spans="1:9" ht="28" hidden="1">
       <c r="A110" s="1" t="s">
         <v>16</v>
       </c>
@@ -4725,15 +4726,15 @@
         <v>-1.61</v>
       </c>
       <c r="H110">
-        <f t="shared" si="6"/>
+        <f>C110+G110</f>
         <v>9.59</v>
       </c>
       <c r="I110" s="4">
-        <f t="shared" si="7"/>
+        <f>F110/H110</f>
         <v>771.63712200208556</v>
       </c>
     </row>
-    <row r="111" spans="1:9" ht="28">
+    <row r="111" spans="1:9" ht="28" hidden="1">
       <c r="A111" s="1" t="s">
         <v>16</v>
       </c>
@@ -4756,11 +4757,11 @@
         <v>-1.61</v>
       </c>
       <c r="H111">
-        <f t="shared" si="6"/>
+        <f>C111+G111</f>
         <v>10.49</v>
       </c>
       <c r="I111" s="4">
-        <f t="shared" si="7"/>
+        <f>F111/H111</f>
         <v>695.90085795996185</v>
       </c>
     </row>
@@ -4769,30 +4770,30 @@
         <v>0</v>
       </c>
       <c r="B112" s="1" t="s">
-        <v>86</v>
+        <v>106</v>
       </c>
       <c r="C112" s="1">
-        <v>16.2</v>
+        <v>14.1</v>
       </c>
       <c r="D112" s="1">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E112" s="2" t="s">
-        <v>45</v>
+        <v>13</v>
       </c>
       <c r="F112" s="3">
-        <v>6800</v>
+        <v>6300</v>
       </c>
       <c r="G112" s="1">
-        <v>-1.61</v>
+        <v>-0.68</v>
       </c>
       <c r="H112">
-        <f t="shared" si="6"/>
-        <v>14.59</v>
+        <f>C112+G112</f>
+        <v>13.42</v>
       </c>
       <c r="I112" s="4">
-        <f t="shared" si="7"/>
-        <v>466.07265250171349</v>
+        <f>F112/H112</f>
+        <v>469.44858420268258</v>
       </c>
     </row>
     <row r="113" spans="1:9">
@@ -4800,30 +4801,30 @@
         <v>0</v>
       </c>
       <c r="B113" s="1" t="s">
-        <v>111</v>
+        <v>55</v>
       </c>
       <c r="C113" s="1">
-        <v>9.4</v>
+        <v>15.3</v>
       </c>
       <c r="D113" s="1">
-        <v>1</v>
-      </c>
-      <c r="E113" s="2" t="s">
-        <v>45</v>
+        <v>7</v>
+      </c>
+      <c r="E113" s="1" t="s">
+        <v>22</v>
       </c>
       <c r="F113" s="3">
-        <v>6100</v>
+        <v>7500</v>
       </c>
       <c r="G113" s="1">
-        <v>-1.61</v>
+        <v>-1.94</v>
       </c>
       <c r="H113">
-        <f t="shared" si="6"/>
-        <v>7.79</v>
+        <f>C113+G113</f>
+        <v>13.360000000000001</v>
       </c>
       <c r="I113" s="4">
-        <f t="shared" si="7"/>
-        <v>783.05519897304237</v>
+        <f>F113/H113</f>
+        <v>561.37724550898201</v>
       </c>
     </row>
     <row r="114" spans="1:9">
@@ -4831,33 +4832,33 @@
         <v>0</v>
       </c>
       <c r="B114" s="1" t="s">
-        <v>10</v>
+        <v>76</v>
       </c>
       <c r="C114" s="1">
-        <v>19.3</v>
+        <v>13.1</v>
       </c>
       <c r="D114" s="1">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E114" s="1" t="s">
-        <v>11</v>
+        <v>77</v>
       </c>
       <c r="F114" s="3">
-        <v>9100</v>
+        <v>7000</v>
       </c>
       <c r="G114" s="1">
-        <v>-1.67</v>
+        <v>0.01</v>
       </c>
       <c r="H114">
-        <f t="shared" si="6"/>
-        <v>17.630000000000003</v>
+        <f>C114+G114</f>
+        <v>13.11</v>
       </c>
       <c r="I114" s="4">
-        <f t="shared" si="7"/>
-        <v>516.16562677254672</v>
-      </c>
-    </row>
-    <row r="115" spans="1:9" ht="28">
+        <f>F114/H114</f>
+        <v>533.94355453852029</v>
+      </c>
+    </row>
+    <row r="115" spans="1:9" ht="28" hidden="1">
       <c r="A115" s="1" t="s">
         <v>16</v>
       </c>
@@ -4880,15 +4881,15 @@
         <v>-1.76</v>
       </c>
       <c r="H115">
-        <f t="shared" si="6"/>
+        <f>C115+G115</f>
         <v>9.44</v>
       </c>
       <c r="I115" s="4">
-        <f t="shared" si="7"/>
+        <f>F115/H115</f>
         <v>752.11864406779659</v>
       </c>
     </row>
-    <row r="116" spans="1:9">
+    <row r="116" spans="1:9" hidden="1">
       <c r="A116" s="1" t="s">
         <v>47</v>
       </c>
@@ -4911,15 +4912,15 @@
         <v>-1.77</v>
       </c>
       <c r="H116">
-        <f t="shared" si="6"/>
+        <f>C116+G116</f>
         <v>4.33</v>
       </c>
       <c r="I116" s="4">
-        <f t="shared" si="7"/>
+        <f>F116/H116</f>
         <v>1224.0184757505774</v>
       </c>
     </row>
-    <row r="117" spans="1:9" ht="28">
+    <row r="117" spans="1:9" ht="28" hidden="1">
       <c r="A117" s="1" t="s">
         <v>47</v>
       </c>
@@ -4942,11 +4943,11 @@
         <v>-1.77</v>
       </c>
       <c r="H117">
-        <f t="shared" si="6"/>
+        <f>C117+G117</f>
         <v>2.3299999999999996</v>
       </c>
       <c r="I117" s="4">
-        <f t="shared" si="7"/>
+        <f>F117/H117</f>
         <v>2188.8412017167384</v>
       </c>
     </row>
@@ -4955,33 +4956,33 @@
         <v>0</v>
       </c>
       <c r="B118" s="1" t="s">
-        <v>55</v>
+        <v>41</v>
       </c>
       <c r="C118" s="1">
-        <v>15.3</v>
+        <v>14.9</v>
       </c>
       <c r="D118" s="1">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E118" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="F118" s="3">
-        <v>7500</v>
+        <v>8000</v>
       </c>
       <c r="G118" s="1">
-        <v>-1.94</v>
+        <v>-2.2200000000000002</v>
       </c>
       <c r="H118">
-        <f t="shared" si="6"/>
-        <v>13.360000000000001</v>
+        <f>C118+G118</f>
+        <v>12.68</v>
       </c>
       <c r="I118" s="4">
-        <f t="shared" si="7"/>
-        <v>561.37724550898201</v>
-      </c>
-    </row>
-    <row r="119" spans="1:9">
+        <f>F118/H118</f>
+        <v>630.91482649842271</v>
+      </c>
+    </row>
+    <row r="119" spans="1:9" hidden="1">
       <c r="A119" s="1" t="s">
         <v>16</v>
       </c>
@@ -5004,15 +5005,15 @@
         <v>-1.95</v>
       </c>
       <c r="H119">
-        <f t="shared" si="6"/>
+        <f>C119+G119</f>
         <v>9.15</v>
       </c>
       <c r="I119" s="4">
-        <f t="shared" si="7"/>
+        <f>F119/H119</f>
         <v>655.7377049180327</v>
       </c>
     </row>
-    <row r="120" spans="1:9" ht="28">
+    <row r="120" spans="1:9" ht="28" hidden="1">
       <c r="A120" s="1" t="s">
         <v>5</v>
       </c>
@@ -5035,11 +5036,11 @@
         <v>-1.96</v>
       </c>
       <c r="H120" s="5">
-        <f t="shared" si="6"/>
+        <f>C120+G120</f>
         <v>10.84</v>
       </c>
       <c r="I120" s="5">
-        <f t="shared" si="7"/>
+        <f>F120/H120</f>
         <v>802.58302583025829</v>
       </c>
     </row>
@@ -5048,30 +5049,30 @@
         <v>0</v>
       </c>
       <c r="B121" s="1" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="C121" s="1">
-        <v>13.6</v>
+        <v>14.2</v>
       </c>
       <c r="D121" s="1">
-        <v>6</v>
-      </c>
-      <c r="E121" s="2" t="s">
-        <v>98</v>
+        <v>5</v>
+      </c>
+      <c r="E121" s="1" t="s">
+        <v>94</v>
       </c>
       <c r="F121" s="3">
         <v>6600</v>
       </c>
       <c r="G121" s="1">
-        <v>-2.0299999999999998</v>
+        <v>-2.11</v>
       </c>
       <c r="H121">
-        <f t="shared" si="6"/>
-        <v>11.57</v>
+        <f>C121+G121</f>
+        <v>12.09</v>
       </c>
       <c r="I121" s="4">
-        <f t="shared" si="7"/>
-        <v>570.44079515989631</v>
+        <f>F121/H121</f>
+        <v>545.90570719602977</v>
       </c>
     </row>
     <row r="122" spans="1:9">
@@ -5079,33 +5080,33 @@
         <v>0</v>
       </c>
       <c r="B122" s="1" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="C122" s="1">
-        <v>14.2</v>
+        <v>13.6</v>
       </c>
       <c r="D122" s="1">
-        <v>5</v>
-      </c>
-      <c r="E122" s="1" t="s">
-        <v>94</v>
+        <v>6</v>
+      </c>
+      <c r="E122" s="2" t="s">
+        <v>98</v>
       </c>
       <c r="F122" s="3">
         <v>6600</v>
       </c>
       <c r="G122" s="1">
-        <v>-2.11</v>
+        <v>-2.0299999999999998</v>
       </c>
       <c r="H122">
-        <f t="shared" si="6"/>
-        <v>12.09</v>
+        <f>C122+G122</f>
+        <v>11.57</v>
       </c>
       <c r="I122" s="4">
-        <f t="shared" si="7"/>
-        <v>545.90570719602977</v>
-      </c>
-    </row>
-    <row r="123" spans="1:9" ht="28">
+        <f>F122/H122</f>
+        <v>570.44079515989631</v>
+      </c>
+    </row>
+    <row r="123" spans="1:9" ht="28" hidden="1">
       <c r="A123" s="1" t="s">
         <v>16</v>
       </c>
@@ -5128,11 +5129,11 @@
         <v>-2.21</v>
       </c>
       <c r="H123">
-        <f t="shared" si="6"/>
+        <f>C123+G123</f>
         <v>9.09</v>
       </c>
       <c r="I123" s="4">
-        <f t="shared" si="7"/>
+        <f>F123/H123</f>
         <v>759.07590759075913</v>
       </c>
     </row>
@@ -5141,30 +5142,30 @@
         <v>0</v>
       </c>
       <c r="B124" s="1" t="s">
-        <v>41</v>
+        <v>53</v>
       </c>
       <c r="C124" s="1">
-        <v>14.9</v>
+        <v>15.2</v>
       </c>
       <c r="D124" s="1">
         <v>6</v>
       </c>
-      <c r="E124" s="1" t="s">
-        <v>24</v>
+      <c r="E124" s="2" t="s">
+        <v>54</v>
       </c>
       <c r="F124" s="3">
-        <v>8000</v>
+        <v>7500</v>
       </c>
       <c r="G124" s="1">
-        <v>-2.2200000000000002</v>
+        <v>-3.78</v>
       </c>
       <c r="H124">
-        <f t="shared" si="6"/>
-        <v>12.68</v>
+        <f>C124+G124</f>
+        <v>11.42</v>
       </c>
       <c r="I124" s="4">
-        <f t="shared" si="7"/>
-        <v>630.91482649842271</v>
+        <f>F124/H124</f>
+        <v>656.74255691768826</v>
       </c>
     </row>
     <row r="125" spans="1:9">
@@ -5172,33 +5173,33 @@
         <v>0</v>
       </c>
       <c r="B125" s="1" t="s">
-        <v>88</v>
+        <v>111</v>
       </c>
       <c r="C125" s="1">
-        <v>16.600000000000001</v>
+        <v>9.4</v>
       </c>
       <c r="D125" s="1">
-        <v>4</v>
-      </c>
-      <c r="E125" s="1" t="s">
-        <v>65</v>
+        <v>1</v>
+      </c>
+      <c r="E125" s="2" t="s">
+        <v>45</v>
       </c>
       <c r="F125" s="3">
-        <v>6800</v>
+        <v>6100</v>
       </c>
       <c r="G125" s="1">
-        <v>-2.5299999999999998</v>
+        <v>-1.61</v>
       </c>
       <c r="H125">
-        <f t="shared" si="6"/>
-        <v>14.070000000000002</v>
+        <f>C125+G125</f>
+        <v>7.79</v>
       </c>
       <c r="I125" s="4">
-        <f t="shared" si="7"/>
-        <v>483.29779673063246</v>
-      </c>
-    </row>
-    <row r="126" spans="1:9" ht="28">
+        <f>F125/H125</f>
+        <v>783.05519897304237</v>
+      </c>
+    </row>
+    <row r="126" spans="1:9" ht="28" hidden="1">
       <c r="A126" s="1" t="s">
         <v>16</v>
       </c>
@@ -5221,15 +5222,15 @@
         <v>-2.5499999999999998</v>
       </c>
       <c r="H126">
-        <f t="shared" si="6"/>
+        <f>C126+G126</f>
         <v>9.3500000000000014</v>
       </c>
       <c r="I126" s="4">
-        <f t="shared" si="7"/>
+        <f>F126/H126</f>
         <v>834.22459893048119</v>
       </c>
     </row>
-    <row r="127" spans="1:9">
+    <row r="127" spans="1:9" hidden="1">
       <c r="A127" s="1" t="s">
         <v>16</v>
       </c>
@@ -5252,15 +5253,15 @@
         <v>-2.5499999999999998</v>
       </c>
       <c r="H127">
-        <f t="shared" si="6"/>
+        <f>C127+G127</f>
         <v>8.1499999999999986</v>
       </c>
       <c r="I127" s="4">
-        <f t="shared" si="7"/>
+        <f>F127/H127</f>
         <v>895.70552147239277</v>
       </c>
     </row>
-    <row r="128" spans="1:9">
+    <row r="128" spans="1:9" hidden="1">
       <c r="A128" s="1" t="s">
         <v>16</v>
       </c>
@@ -5283,15 +5284,15 @@
         <v>-2.83</v>
       </c>
       <c r="H128">
-        <f t="shared" si="6"/>
+        <f>C128+G128</f>
         <v>10.77</v>
       </c>
       <c r="I128" s="4">
-        <f t="shared" si="7"/>
+        <f>F128/H128</f>
         <v>603.52831940575675</v>
       </c>
     </row>
-    <row r="129" spans="1:9">
+    <row r="129" spans="1:9" hidden="1">
       <c r="A129" s="1" t="s">
         <v>16</v>
       </c>
@@ -5314,15 +5315,15 @@
         <v>-2.83</v>
       </c>
       <c r="H129">
-        <f t="shared" si="6"/>
+        <f>C129+G129</f>
         <v>6.8699999999999992</v>
       </c>
       <c r="I129" s="4">
-        <f t="shared" si="7"/>
+        <f>F129/H129</f>
         <v>858.80640465793317</v>
       </c>
     </row>
-    <row r="130" spans="1:9" ht="28">
+    <row r="130" spans="1:9" ht="28" hidden="1">
       <c r="A130" s="1" t="s">
         <v>16</v>
       </c>
@@ -5345,15 +5346,15 @@
         <v>-2.91</v>
       </c>
       <c r="H130">
-        <f t="shared" ref="H130:H161" si="8">C130+G130</f>
+        <f>C130+G130</f>
         <v>6.8900000000000006</v>
       </c>
       <c r="I130" s="4">
-        <f t="shared" ref="I130:I161" si="9">F130/H130</f>
+        <f>F130/H130</f>
         <v>986.93759071117552</v>
       </c>
     </row>
-    <row r="131" spans="1:9" ht="28">
+    <row r="131" spans="1:9" ht="28" hidden="1">
       <c r="A131" s="1" t="s">
         <v>16</v>
       </c>
@@ -5376,15 +5377,15 @@
         <v>-2.98</v>
       </c>
       <c r="H131">
-        <f t="shared" si="8"/>
+        <f>C131+G131</f>
         <v>15.919999999999998</v>
       </c>
       <c r="I131" s="4">
-        <f t="shared" si="9"/>
+        <f>F131/H131</f>
         <v>546.48241206030161</v>
       </c>
     </row>
-    <row r="132" spans="1:9">
+    <row r="132" spans="1:9" hidden="1">
       <c r="A132" s="1" t="s">
         <v>16</v>
       </c>
@@ -5407,15 +5408,15 @@
         <v>-3.36</v>
       </c>
       <c r="H132">
-        <f t="shared" si="8"/>
+        <f>C132+G132</f>
         <v>5.74</v>
       </c>
       <c r="I132" s="4">
-        <f t="shared" si="9"/>
+        <f>F132/H132</f>
         <v>1132.4041811846689</v>
       </c>
     </row>
-    <row r="133" spans="1:9" ht="28">
+    <row r="133" spans="1:9" ht="28" hidden="1">
       <c r="A133" s="1" t="s">
         <v>5</v>
       </c>
@@ -5438,15 +5439,15 @@
         <v>-3.56</v>
       </c>
       <c r="H133" s="5">
-        <f t="shared" si="8"/>
+        <f>C133+G133</f>
         <v>6.74</v>
       </c>
       <c r="I133" s="5">
-        <f t="shared" si="9"/>
+        <f>F133/H133</f>
         <v>1186.9436201780416</v>
       </c>
     </row>
-    <row r="134" spans="1:9" ht="28">
+    <row r="134" spans="1:9" ht="28" hidden="1">
       <c r="A134" s="1" t="s">
         <v>5</v>
       </c>
@@ -5469,15 +5470,15 @@
         <v>-3.56</v>
       </c>
       <c r="H134" s="5">
-        <f t="shared" si="8"/>
+        <f>C134+G134</f>
         <v>8.24</v>
       </c>
       <c r="I134" s="5">
-        <f t="shared" si="9"/>
+        <f>F134/H134</f>
         <v>740.29126213592235</v>
       </c>
     </row>
-    <row r="135" spans="1:9" ht="28">
+    <row r="135" spans="1:9" ht="28" hidden="1">
       <c r="A135" s="1" t="s">
         <v>5</v>
       </c>
@@ -5500,15 +5501,15 @@
         <v>-3.63</v>
       </c>
       <c r="H135" s="5">
-        <f t="shared" si="8"/>
+        <f>C135+G135</f>
         <v>18.07</v>
       </c>
       <c r="I135" s="5">
-        <f t="shared" si="9"/>
+        <f>F135/H135</f>
         <v>531.26729385722194</v>
       </c>
     </row>
-    <row r="136" spans="1:9" ht="28">
+    <row r="136" spans="1:9" ht="28" hidden="1">
       <c r="A136" s="1" t="s">
         <v>5</v>
       </c>
@@ -5531,11 +5532,11 @@
         <v>-3.69</v>
       </c>
       <c r="H136" s="5">
-        <f t="shared" si="8"/>
+        <f>C136+G136</f>
         <v>11.610000000000001</v>
       </c>
       <c r="I136" s="5">
-        <f t="shared" si="9"/>
+        <f>F136/H136</f>
         <v>740.74074074074065</v>
       </c>
     </row>
@@ -5544,33 +5545,33 @@
         <v>0</v>
       </c>
       <c r="B137" s="1" t="s">
-        <v>53</v>
+        <v>152</v>
       </c>
       <c r="C137" s="1">
-        <v>15.2</v>
+        <v>-0.3</v>
       </c>
       <c r="D137" s="1">
-        <v>6</v>
-      </c>
-      <c r="E137" s="2" t="s">
-        <v>54</v>
+        <v>1</v>
+      </c>
+      <c r="E137" s="1" t="s">
+        <v>80</v>
       </c>
       <c r="F137" s="3">
-        <v>7500</v>
+        <v>5200</v>
       </c>
       <c r="G137" s="1">
-        <v>-3.78</v>
+        <v>0.1</v>
       </c>
       <c r="H137">
-        <f t="shared" si="8"/>
-        <v>11.42</v>
+        <f>C137+G137</f>
+        <v>-0.19999999999999998</v>
       </c>
       <c r="I137" s="4">
-        <f t="shared" si="9"/>
-        <v>656.74255691768826</v>
-      </c>
-    </row>
-    <row r="138" spans="1:9" ht="28">
+        <f>F137/H137</f>
+        <v>-26000.000000000004</v>
+      </c>
+    </row>
+    <row r="138" spans="1:9" ht="28" hidden="1">
       <c r="A138" s="1" t="s">
         <v>5</v>
       </c>
@@ -5593,15 +5594,15 @@
         <v>-3.93</v>
       </c>
       <c r="H138" s="5">
-        <f t="shared" si="8"/>
+        <f t="shared" ref="H130:H161" si="0">C138+G138</f>
         <v>1.3699999999999997</v>
       </c>
       <c r="I138" s="5">
-        <f t="shared" si="9"/>
+        <f t="shared" ref="I130:I161" si="1">F138/H138</f>
         <v>4160.5839416058407</v>
       </c>
     </row>
-    <row r="139" spans="1:9" ht="28">
+    <row r="139" spans="1:9" ht="28" hidden="1">
       <c r="A139" s="1" t="s">
         <v>5</v>
       </c>
@@ -5624,15 +5625,15 @@
         <v>-5.51</v>
       </c>
       <c r="H139" s="5">
-        <f t="shared" si="8"/>
+        <f t="shared" si="0"/>
         <v>5.59</v>
       </c>
       <c r="I139" s="5">
-        <f t="shared" si="9"/>
+        <f t="shared" si="1"/>
         <v>1073.3452593917712</v>
       </c>
     </row>
-    <row r="140" spans="1:9" ht="28">
+    <row r="140" spans="1:9" ht="28" hidden="1">
       <c r="A140" s="1" t="s">
         <v>16</v>
       </c>
@@ -5655,18 +5656,23 @@
         <v>-6.02</v>
       </c>
       <c r="H140">
-        <f t="shared" si="8"/>
+        <f t="shared" si="0"/>
         <v>7.18</v>
       </c>
       <c r="I140" s="4">
-        <f t="shared" si="9"/>
+        <f t="shared" si="1"/>
         <v>947.07520891364902</v>
       </c>
     </row>
   </sheetData>
   <autoFilter ref="A1:I140">
-    <sortState ref="A2:I471">
-      <sortCondition descending="1" ref="G1:G471"/>
+    <filterColumn colId="0">
+      <filters>
+        <filter val="QB"/>
+      </filters>
+    </filterColumn>
+    <sortState ref="A2:I137">
+      <sortCondition descending="1" ref="H1:H140"/>
     </sortState>
   </autoFilter>
   <sortState ref="A2:F471">
